--- a/biology/Biologie cellulaire et moléculaire/María_Blasco/María_Blasco.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/María_Blasco/María_Blasco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mar%C3%ADa_Blasco</t>
+          <t>María_Blasco</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">María Blasco Marhuenda, (née en 1965 à Verdegás, quartier Alicante) plus connue sous le nom de Maria Blasco est une biologiste moléculaire espagnole spécialisée dans les télomères et la télomérase. Elle dirige depuis juin 2011 le Centre national de recherche sur le cancer de Madrid (Centro Nacional de Investigaciones Oncológicas). Elle a obtenu la médaille d'or de l'Organisation européenne de biologie moléculaire en 2004.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mar%C3%ADa_Blasco</t>
+          <t>María_Blasco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Education et Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1988, elle a obtenu une licence de biologie à l'Université autonome de Madrid.
 En 1993, Elle y a achevé son doctorat de biologie moléculaire sous la supervision de Margarita Salas.
